--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRusu\Documents\UiPath\fwf-best-pick-books-performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D7BA3F-4FCB-4017-A7D7-47585EDC0000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DFD40-9D1A-40CB-B33C-9D01CAA4C8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -169,13 +166,28 @@
   </si>
   <si>
     <t>BestPickBooksQueue</t>
+  </si>
+  <si>
+    <t>TestMail</t>
+  </si>
+  <si>
+    <t>alexandru.rusu@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>Email used for testing</t>
+  </si>
+  <si>
+    <t>fwf-best-pick-books-performer</t>
+  </si>
+  <si>
+    <t>PriceLimit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,6 +217,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,10 +241,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,8 +256,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -601,24 +622,24 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -627,15 +648,27 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B8" s="3"/>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1628,8 +1661,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{F326DF54-E8E6-413E-A501-84E8EC8F6C9A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1691,18 +1727,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1726,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1748,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1759,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1770,53 +1806,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2800,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2820,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2850,19 +2886,29 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRusu\Documents\UiPath\fwf-best-pick-books-performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DFD40-9D1A-40CB-B33C-9D01CAA4C8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778284DF-A812-413E-B817-5CB97B64F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,36 @@
   </si>
   <si>
     <t>PriceLimit</t>
+  </si>
+  <si>
+    <t>Data\Output\OutputReport.xlsx</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>SheetName1</t>
+  </si>
+  <si>
+    <t>SheetName2</t>
+  </si>
+  <si>
+    <t>Emag</t>
+  </si>
+  <si>
+    <t>Carturesti</t>
+  </si>
+  <si>
+    <t>Best Picks</t>
+  </si>
+  <si>
+    <t>SheetName3</t>
+  </si>
+  <si>
+    <t>NewName</t>
+  </si>
+  <si>
+    <t>Best_Pick_Books_OutputReport_" + Now.ToString("dd-MM-yyyy") + ".xlsx</t>
   </si>
 </sst>
 </file>
@@ -575,13 +605,13 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -667,12 +697,45 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B8" s="3"/>
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandruRusu\Documents\UiPath\fwf-best-pick-books-performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778284DF-A812-413E-B817-5CB97B64F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42F05CD-693C-4A6B-9637-530E61710974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -183,9 +183,6 @@
     <t>PriceLimit</t>
   </si>
   <si>
-    <t>Data\Output\OutputReport.xlsx</t>
-  </si>
-  <si>
     <t>FilePath</t>
   </si>
   <si>
@@ -207,10 +204,7 @@
     <t>SheetName3</t>
   </si>
   <si>
-    <t>NewName</t>
-  </si>
-  <si>
-    <t>Best_Pick_Books_OutputReport_" + Now.ToString("dd-MM-yyyy") + ".xlsx</t>
+    <t>C:\Users\AlexandruRusu\Documents\UiPath\fwf-best-pick-books-performer\Data\Output\OutputReport.xlsx</t>
   </si>
 </sst>
 </file>
@@ -605,7 +599,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -696,46 +690,39 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="30.75" customHeight="1">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
